--- a/codeLibrary/R/R/airlineData/Johannesburg.xlsx
+++ b/codeLibrary/R/R/airlineData/Johannesburg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C99DC69-DB42-EA40-821C-A1586DC454BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44845B6-EE34-CA47-B79B-BC77E409A35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39440" yWindow="3440" windowWidth="27240" windowHeight="16440"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>DateTime</t>
   </si>
@@ -133,16 +133,46 @@
   </si>
   <si>
     <t>Percent</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>2021-12-01</t>
+  </si>
+  <si>
+    <t>2021-12-02</t>
+  </si>
+  <si>
+    <t>2021-12-03</t>
+  </si>
+  <si>
+    <t>2021-12-04</t>
+  </si>
+  <si>
+    <t>2021-12-05</t>
+  </si>
+  <si>
+    <t>2021-12-06</t>
+  </si>
+  <si>
+    <t>2021-12-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel bans announced on November 26 bar entry into the US of noncitizens coming from eight countries in southern Africa. They are Botswana, Eswatini, Lesotho, Malawi, Mozambique, Namibia, South Africa and Zimbabwe. </t>
+  </si>
+  <si>
+    <t>All flights departing after 12:01 a.m. ET December 6 will abide by a new CDC testing order.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -288,6 +318,14 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -590,7 +628,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -634,8 +672,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -646,9 +685,10 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -682,6 +722,7 @@
     <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
     <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
@@ -1002,14 +1043,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
@@ -1029,7 +1070,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1044,7 +1085,7 @@
         <v>0.67796610169491522</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1055,11 +1096,11 @@
         <v>127</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D31" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D39" si="0">C3/B3</f>
         <v>0.65463917525773196</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1074,7 +1115,7 @@
         <v>0.58695652173913049</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1089,7 +1130,7 @@
         <v>0.65816326530612246</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1104,7 +1145,7 @@
         <v>0.64795918367346939</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1119,7 +1160,7 @@
         <v>0.65841584158415845</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1134,7 +1175,7 @@
         <v>0.61392405063291144</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,7 +1190,7 @@
         <v>0.60386473429951693</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1164,7 +1205,7 @@
         <v>0.53418803418803418</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1179,7 +1220,7 @@
         <v>0.52857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1194,7 +1235,7 @@
         <v>0.55299539170506917</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,7 +1250,7 @@
         <v>0.56108597285067874</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1224,7 +1265,7 @@
         <v>0.55652173913043479</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1239,7 +1280,7 @@
         <v>0.58139534883720934</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1254,7 +1295,7 @@
         <v>0.64102564102564108</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1269,7 +1310,7 @@
         <v>0.5821596244131455</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1284,7 +1325,7 @@
         <v>0.58585858585858586</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,7 +1340,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1314,7 +1355,7 @@
         <v>0.66826923076923073</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1329,7 +1370,7 @@
         <v>0.64622641509433965</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1344,7 +1385,7 @@
         <v>0.62658227848101267</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1359,7 +1400,7 @@
         <v>0.66326530612244894</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1374,7 +1415,7 @@
         <v>0.61611374407582942</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1389,7 +1430,7 @@
         <v>0.57653061224489799</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1404,7 +1445,7 @@
         <v>0.59615384615384615</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1419,7 +1460,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1433,8 +1474,11 @@
         <f t="shared" si="0"/>
         <v>0.61682242990654201</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1449,7 +1493,7 @@
         <v>0.61349693251533743</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1464,7 +1508,7 @@
         <v>0.62944162436548223</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1479,8 +1523,133 @@
         <v>0.57077625570776258</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="2">
+        <v>196</v>
+      </c>
+      <c r="C32" s="2">
+        <v>120</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="0"/>
+        <v>0.61224489795918369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="2">
+        <v>220</v>
+      </c>
+      <c r="C33" s="2">
+        <v>124</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5636363636363636</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="2">
+        <v>221</v>
+      </c>
+      <c r="C34" s="2">
+        <v>127</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="0"/>
+        <v>0.57466063348416285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="2">
+        <v>230</v>
+      </c>
+      <c r="C35" s="2">
+        <v>135</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="0"/>
+        <v>0.58695652173913049</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="2">
+        <v>170</v>
+      </c>
+      <c r="C36" s="2">
+        <v>94</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="0"/>
+        <v>0.55294117647058827</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="2">
+        <v>208</v>
+      </c>
+      <c r="C37" s="2">
+        <v>129</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="0"/>
+        <v>0.62019230769230771</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="2">
+        <v>221</v>
+      </c>
+      <c r="C38" s="2">
+        <v>122</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="0"/>
+        <v>0.55203619909502266</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="2">
+        <v>195</v>
+      </c>
+      <c r="C39" s="2">
+        <v>113</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="0"/>
+        <v>0.57948717948717954</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F38" r:id="rId1" display="https://www.cdc.gov/coronavirus/2019-ncov/travelers/testing-international-air-travelers.html" xr:uid="{EDE978A1-5780-8044-B8B9-37030DFE1B65}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/codeLibrary/R/R/airlineData/Johannesburg.xlsx
+++ b/codeLibrary/R/R/airlineData/Johannesburg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44845B6-EE34-CA47-B79B-BC77E409A35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94189E0B-123D-AD4A-93A6-F9888E27BA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>DateTime</t>
   </si>
@@ -163,6 +163,30 @@
   </si>
   <si>
     <t>All flights departing after 12:01 a.m. ET December 6 will abide by a new CDC testing order.</t>
+  </si>
+  <si>
+    <t>2021-12-08</t>
+  </si>
+  <si>
+    <t>2021-12-09</t>
+  </si>
+  <si>
+    <t>2021-12-10</t>
+  </si>
+  <si>
+    <t>2021-12-11</t>
+  </si>
+  <si>
+    <t>2021-12-12</t>
+  </si>
+  <si>
+    <t>2021-12-13</t>
+  </si>
+  <si>
+    <t>2021-12-14</t>
+  </si>
+  <si>
+    <t>2021-12-15</t>
   </si>
 </sst>
 </file>
@@ -1044,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1096,7 +1120,7 @@
         <v>127</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D39" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D46" si="0">C3/B3</f>
         <v>0.65463917525773196</v>
       </c>
     </row>
@@ -1315,14 +1339,14 @@
         <v>19</v>
       </c>
       <c r="B18" s="2">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2">
         <v>116</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
-        <v>0.58585858585858586</v>
+        <v>0.63387978142076506</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1330,14 +1354,14 @@
         <v>20</v>
       </c>
       <c r="B19" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2">
         <v>132</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
-        <v>0.63157894736842102</v>
+        <v>0.65346534653465349</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1345,14 +1369,14 @@
         <v>21</v>
       </c>
       <c r="B20" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2">
         <v>139</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>0.66826923076923073</v>
+        <v>0.69154228855721389</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1360,14 +1384,14 @@
         <v>22</v>
       </c>
       <c r="B21" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2">
         <v>137</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
-        <v>0.64622641509433965</v>
+        <v>0.66504854368932043</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1375,14 +1399,14 @@
         <v>23</v>
       </c>
       <c r="B22" s="2">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C22" s="2">
         <v>99</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
-        <v>0.62658227848101267</v>
+        <v>0.66442953020134232</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1390,14 +1414,14 @@
         <v>24</v>
       </c>
       <c r="B23" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C23" s="2">
         <v>130</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
-        <v>0.66326530612244894</v>
+        <v>0.69148936170212771</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1644,6 +1668,122 @@
       <c r="D39" s="4">
         <f t="shared" si="0"/>
         <v>0.57948717948717954</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="2">
+        <v>215</v>
+      </c>
+      <c r="C40" s="2">
+        <v>122</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="0"/>
+        <v>0.56744186046511624</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="2">
+        <v>219</v>
+      </c>
+      <c r="C41" s="2">
+        <v>125</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="0"/>
+        <v>0.57077625570776258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="2">
+        <v>219</v>
+      </c>
+      <c r="C42" s="2">
+        <v>132</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="0"/>
+        <v>0.60273972602739723</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="2">
+        <v>175</v>
+      </c>
+      <c r="C43" s="2">
+        <v>99</v>
+      </c>
+      <c r="D43" s="4">
+        <f t="shared" si="0"/>
+        <v>0.56571428571428573</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="2">
+        <v>194</v>
+      </c>
+      <c r="C44" s="2">
+        <v>115</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" si="0"/>
+        <v>0.59278350515463918</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="2">
+        <v>223</v>
+      </c>
+      <c r="C45" s="2">
+        <v>123</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" si="0"/>
+        <v>0.55156950672645744</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="2">
+        <v>208</v>
+      </c>
+      <c r="C46" s="2">
+        <v>109</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" si="0"/>
+        <v>0.52403846153846156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="2">
+        <v>217</v>
+      </c>
+      <c r="C47" s="2">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Johannesburg.xlsx
+++ b/codeLibrary/R/R/airlineData/Johannesburg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94189E0B-123D-AD4A-93A6-F9888E27BA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C6D03C-AE43-DF45-8464-5B4D89DAF437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>DateTime</t>
   </si>
@@ -187,6 +187,33 @@
   </si>
   <si>
     <t>2021-12-15</t>
+  </si>
+  <si>
+    <t>2021-12-16</t>
+  </si>
+  <si>
+    <t>2021-12-17</t>
+  </si>
+  <si>
+    <t>2021-12-18</t>
+  </si>
+  <si>
+    <t>2021-12-19</t>
+  </si>
+  <si>
+    <t>2021-12-20</t>
+  </si>
+  <si>
+    <t>2021-12-21</t>
+  </si>
+  <si>
+    <t>2021-12-22</t>
+  </si>
+  <si>
+    <t>2021-12-23</t>
+  </si>
+  <si>
+    <t>2021-12-24</t>
   </si>
 </sst>
 </file>
@@ -1068,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:D46"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1120,7 +1147,7 @@
         <v>127</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D46" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D56" si="0">C3/B3</f>
         <v>0.65463917525773196</v>
       </c>
     </row>
@@ -1474,14 +1501,14 @@
         <v>28</v>
       </c>
       <c r="B27" s="2">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C27" s="2">
         <v>132</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" si="0"/>
-        <v>0.63157894736842102</v>
+        <v>0.67005076142131981</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1489,14 +1516,14 @@
         <v>29</v>
       </c>
       <c r="B28" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C28" s="2">
         <v>132</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" si="0"/>
-        <v>0.61682242990654201</v>
+        <v>0.64077669902912626</v>
       </c>
       <c r="F28" t="s">
         <v>42</v>
@@ -1507,14 +1534,14 @@
         <v>30</v>
       </c>
       <c r="B29" s="2">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C29" s="2">
         <v>100</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" si="0"/>
-        <v>0.61349693251533743</v>
+        <v>0.65789473684210531</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1522,14 +1549,14 @@
         <v>31</v>
       </c>
       <c r="B30" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C30" s="2">
         <v>124</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" si="0"/>
-        <v>0.62944162436548223</v>
+        <v>0.65263157894736845</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1537,14 +1564,14 @@
         <v>32</v>
       </c>
       <c r="B31" s="2">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C31" s="2">
         <v>125</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" si="0"/>
-        <v>0.57077625570776258</v>
+        <v>0.60096153846153844</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1552,14 +1579,14 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C32" s="2">
         <v>120</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" si="0"/>
-        <v>0.61224489795918369</v>
+        <v>0.64171122994652408</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1784,6 +1811,145 @@
       </c>
       <c r="C47" s="2">
         <v>127</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" si="0"/>
+        <v>0.58525345622119818</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="2">
+        <v>216</v>
+      </c>
+      <c r="C48" s="2">
+        <v>133</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" si="0"/>
+        <v>0.6157407407407407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="2">
+        <v>214</v>
+      </c>
+      <c r="C49" s="2">
+        <v>130</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="0"/>
+        <v>0.60747663551401865</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="2">
+        <v>174</v>
+      </c>
+      <c r="C50" s="2">
+        <v>101</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="0"/>
+        <v>0.58045977011494254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="2">
+        <v>202</v>
+      </c>
+      <c r="C51" s="2">
+        <v>125</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="0"/>
+        <v>0.61881188118811881</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="2">
+        <v>228</v>
+      </c>
+      <c r="C52" s="2">
+        <v>131</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" si="0"/>
+        <v>0.57456140350877194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="2">
+        <v>198</v>
+      </c>
+      <c r="C53" s="2">
+        <v>114</v>
+      </c>
+      <c r="D53" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5757575757575758</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="2">
+        <v>208</v>
+      </c>
+      <c r="C54" s="2">
+        <v>128</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" si="0"/>
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="2">
+        <v>213</v>
+      </c>
+      <c r="C55" s="2">
+        <v>134</v>
+      </c>
+      <c r="D55" s="4">
+        <f t="shared" si="0"/>
+        <v>0.62910798122065725</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="2">
+        <v>204</v>
+      </c>
+      <c r="C56" s="2">
+        <v>131</v>
+      </c>
+      <c r="D56" s="4">
+        <f t="shared" si="0"/>
+        <v>0.64215686274509809</v>
       </c>
     </row>
   </sheetData>
